--- a/Stock Analysis.xlsx
+++ b/Stock Analysis.xlsx
@@ -10,17 +10,17 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
   <si>
     <t xml:space="preserve">Empresa</t>
   </si>
@@ -83,6 +83,42 @@
   </si>
   <si>
     <t xml:space="preserve">Aluguel Carros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37,70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">149.243.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">189.202.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29,74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.565.550.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">554.397.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.892.840.000</t>
   </si>
   <si>
     <t xml:space="preserve">ITSA4</t>
@@ -209,16 +245,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00;[RED]\-[$$-409]#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$R$-416]\ #,##0.00;[RED]\-[$R$-416]\ #,##0.00"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -236,76 +271,11 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF333333"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF808080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF0000EE"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF006600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF996600"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFCC0000"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000080"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFC0C0C0"/>
-      <name val="Lohit Devanagari"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -313,205 +283,30 @@
       <color rgb="FF21409A"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF21409A"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCFFCC"/>
-        <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCCCC"/>
-        <bgColor rgb="FFDDDDDD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCC0000"/>
-        <bgColor rgb="FF800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000000"/>
-        <bgColor rgb="FF003300"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF969696"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
-        <bgColor rgb="FFE6E6FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6FF"/>
-        <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000080"/>
-        <bgColor rgb="FF000080"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="20">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top/>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair">
-        <color rgb="FF000080"/>
-      </left>
-      <right style="hair">
-        <color rgb="FF000080"/>
-      </right>
-      <top style="hair">
-        <color rgb="FF000080"/>
-      </top>
-      <bottom style="hair">
-        <color rgb="FF000080"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -571,7 +366,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="58">
+  <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -595,194 +390,91 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="12" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="165" fontId="5" fillId="9" borderId="2" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="166" fontId="4" fillId="9" borderId="2" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="14" fillId="11" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="3" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="4" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="5" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="6" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="7" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="8" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="9" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="10" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="10" borderId="11" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Hyperlink" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result" xfId="37" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Result2" xfId="38" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading1" xfId="39" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Background" xfId="40" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card" xfId="41" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Input" xfId="42" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card TL" xfId="43" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card T" xfId="44" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card TR" xfId="45" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card L" xfId="46" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card R" xfId="47" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card B" xfId="48" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card BL" xfId="49" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Card BR" xfId="50" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Column Header" xfId="51" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Corner" xfId="52" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Value" xfId="53" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Field" xfId="54" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Category" xfId="55" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Title" xfId="56" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Pivot Table Result" xfId="57" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
+      <rgbColor rgb="FFFF0000"/>
       <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000EE"/>
+      <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
+      <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
+      <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
@@ -790,11 +482,11 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFE6E6FF"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -804,13 +496,13 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFE6E6E6"/>
+      <rgbColor rgb="FFCCFFFF"/>
       <rgbColor rgb="FFCCFFCC"/>
       <rgbColor rgb="FFFFFF99"/>
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
+      <rgbColor rgb="FFFFCC99"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
@@ -837,26 +529,34 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ29"/>
+  <dimension ref="A1:Q29"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P12" activeCellId="0" sqref="P12"/>
+      <selection pane="bottomRight" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.2"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16" min="3" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -908,9 +608,8 @@
       <c r="Q1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>17</v>
       </c>
@@ -932,68 +631,89 @@
       <c r="O2" s="7"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="8"/>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
+      <c r="C3" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <v>17.19</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="P3" s="7"/>
       <c r="Q3" s="8"/>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q4" s="11"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="11"/>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="11"/>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -1010,44 +730,40 @@
       <c r="O7" s="7"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="8"/>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q8" s="11"/>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="Q9" s="11"/>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="10" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="11"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1064,54 +780,49 @@
       <c r="O11" s="7"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="8"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q12" s="11"/>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q13" s="11"/>
-      <c r="AMJ13" s="0"/>
-    </row>
-    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="10" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q14" s="11"/>
-      <c r="AMJ14" s="0"/>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="10" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="Q15" s="11"/>
-      <c r="AMJ15" s="0"/>
-    </row>
-    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1128,14 +839,13 @@
       <c r="O16" s="7"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="8"/>
-      <c r="AMJ16" s="0"/>
-    </row>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1152,34 +862,31 @@
       <c r="O17" s="7"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="8"/>
-      <c r="AMJ17" s="0"/>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="10" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="Q18" s="11"/>
-      <c r="AMJ18" s="0"/>
-    </row>
-    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="Q19" s="11"/>
-      <c r="AMJ19" s="0"/>
-    </row>
-    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1196,24 +903,22 @@
       <c r="O20" s="7"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="8"/>
-      <c r="AMJ20" s="0"/>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="11"/>
-      <c r="AMJ21" s="0"/>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1230,54 +935,49 @@
       <c r="O22" s="7"/>
       <c r="P22" s="7"/>
       <c r="Q22" s="8"/>
-      <c r="AMJ22" s="0"/>
-    </row>
-    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q23" s="11"/>
-      <c r="AMJ23" s="0"/>
-    </row>
-    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q24" s="11"/>
-      <c r="AMJ24" s="0"/>
-    </row>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q25" s="11"/>
-      <c r="AMJ25" s="0"/>
-    </row>
-    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="10" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q26" s="11"/>
-      <c r="AMJ26" s="0"/>
-    </row>
-    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="6" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1294,14 +994,13 @@
       <c r="O27" s="7"/>
       <c r="P27" s="7"/>
       <c r="Q27" s="8"/>
-      <c r="AMJ27" s="0"/>
-    </row>
-    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="6" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1318,14 +1017,13 @@
       <c r="O28" s="7"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="8"/>
-      <c r="AMJ28" s="0"/>
-    </row>
-    <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="12" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -1342,15 +1040,14 @@
       <c r="O29" s="13"/>
       <c r="P29" s="13"/>
       <c r="Q29" s="14"/>
-      <c r="AMJ29" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;A</oddHeader>
-    <oddFooter>&amp;CPage &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/Stock Analysis.xlsx
+++ b/Stock Analysis.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="265">
   <si>
     <t xml:space="preserve">Empresa</t>
   </si>
@@ -79,13 +79,52 @@
     <t xml:space="preserve">Agricultura</t>
   </si>
   <si>
+    <t xml:space="preserve">41,26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95.297.500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">483.409.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.530.710.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">697.292.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19,0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.690.740.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">LCAM3</t>
   </si>
   <si>
     <t xml:space="preserve">Aluguel Carros</t>
   </si>
   <si>
-    <t xml:space="preserve">37,70</t>
+    <t xml:space="preserve">38,09</t>
   </si>
   <si>
     <t xml:space="preserve">149.243.000</t>
@@ -97,10 +136,13 @@
     <t xml:space="preserve">1,27</t>
   </si>
   <si>
-    <t xml:space="preserve">29,74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,19</t>
+    <t xml:space="preserve">30,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,22</t>
   </si>
   <si>
     <t xml:space="preserve">2.565.550.000</t>
@@ -136,6 +178,45 @@
     <t xml:space="preserve">ABCB4</t>
   </si>
   <si>
+    <t xml:space="preserve">18,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">211.133.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">418.086.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,98</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.665.510.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">479.853.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">ABEV3</t>
   </si>
   <si>
@@ -154,9 +235,87 @@
     <t xml:space="preserve">Construção Civil</t>
   </si>
   <si>
+    <t xml:space="preserve">27,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">165.002.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79.289.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,48</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56,60</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,73</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.589.340.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-46.314.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25,2%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">102.672.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEND3</t>
   </si>
   <si>
+    <t xml:space="preserve">34,55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.172.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">188.509.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,56</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.211.720.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">289.720.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">541.208.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">EGIE3</t>
   </si>
   <si>
@@ -169,24 +328,183 @@
     <t xml:space="preserve">ELET3</t>
   </si>
   <si>
+    <t xml:space="preserve">34,41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.352.630.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.770.480.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-16,80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32,02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">43.313.600.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">344.222.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-6,7%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">44.430.200.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">ELET6</t>
   </si>
   <si>
+    <t xml:space="preserve">35,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-17,52</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,12</t>
+  </si>
+  <si>
     <t xml:space="preserve">POMO4</t>
   </si>
   <si>
     <t xml:space="preserve">Material Rodoviário</t>
   </si>
   <si>
+    <t xml:space="preserve">4,13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">946.893.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">186.730.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20,94</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.105.620.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">231.449.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.934.210.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">RAPT4</t>
   </si>
   <si>
+    <t xml:space="preserve">9,83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">345.776.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">119.859.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28,36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,37</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.510.930.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">370.207.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.993.540.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">FLRY3</t>
   </si>
   <si>
     <t xml:space="preserve">Medicina</t>
   </si>
   <si>
+    <t xml:space="preserve">19,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">316.113.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">331.585.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,54</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3,59</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.749.960.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">512.930.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18,9%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.259.180.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">WEG3</t>
   </si>
   <si>
@@ -199,12 +517,87 @@
     <t xml:space="preserve">Petróleo/Gás/Comb</t>
   </si>
   <si>
+    <t xml:space="preserve">14,12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265.807.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">492.957.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,61</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11,53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.064.120.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">265.573.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">76,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">298.557.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SBSP3</t>
   </si>
   <si>
     <t xml:space="preserve">Saneamento</t>
   </si>
   <si>
+    <t xml:space="preserve">39,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">683.510.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.940.100.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27,49</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,43</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.787.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.280.220.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10,3%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.727.000.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAPR11</t>
   </si>
   <si>
@@ -214,9 +607,81 @@
     <t xml:space="preserve">Seguros</t>
   </si>
   <si>
+    <t xml:space="preserve">30,27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.182.460.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">904.960.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,90</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6.286.110.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">725.189.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14,4%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,89</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.470.940.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">PSSA3</t>
   </si>
   <si>
+    <t xml:space="preserve">55,00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">323.293.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.310.620.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23,64</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7.643.240.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.485.500.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17,1%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,3%</t>
+  </si>
+  <si>
     <t xml:space="preserve">IRBR3</t>
   </si>
   <si>
@@ -229,16 +694,127 @@
     <t xml:space="preserve">Software</t>
   </si>
   <si>
+    <t xml:space="preserve">7,10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">41.800.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.799.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9,05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5,76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">240.835.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">42.861.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54.977.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">CVCB3</t>
   </si>
   <si>
     <t xml:space="preserve">Turismo</t>
   </si>
   <si>
+    <t xml:space="preserve">57,03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">146.599.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">270.277.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30,93</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,42</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.087.940.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">630.323.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24,8%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.413.500.000</t>
+  </si>
+  <si>
     <t xml:space="preserve">VVAR3</t>
   </si>
   <si>
     <t xml:space="preserve">Varejo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,68</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.294.350.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-267.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0,21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-22,69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1,95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2,40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.523.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.128.000.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-10,6%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-1,0%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.399.000.000</t>
   </si>
 </sst>
 </file>
@@ -248,7 +824,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -273,23 +849,29 @@
     <font>
       <b val="true"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF21409A"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF21409A"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <name val="Ubuntu"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -391,13 +973,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -416,19 +1002,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -436,19 +1022,19 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -536,510 +1122,1021 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E20" activeCellId="0" sqref="E20"/>
+      <selection pane="bottomRight" activeCell="F22" activeCellId="0" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="6" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="12" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="11.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="0" width="13.93"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="18" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="6.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="13.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="5.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="7.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="2" width="6.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="14.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="13.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="2" width="6.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="2" width="13.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="2" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="2" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="1025" min="18" style="2" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" s="6" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="H2" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="I2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="7" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="I3" s="7" t="s">
+      <c r="J2" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="7" t="s">
+      <c r="K2" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="L2" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N2" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N3" s="7" t="s">
+      <c r="O2" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
+      <c r="B3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q4" s="11"/>
-    </row>
-    <row r="5" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q5" s="11"/>
-    </row>
-    <row r="6" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="s">
+      <c r="F3" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="8"/>
-    </row>
-    <row r="8" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
+      <c r="G3" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="H3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
+      <c r="I3" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="J3" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="s">
+      <c r="K3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="M3" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="8"/>
-    </row>
-    <row r="12" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="s">
+      <c r="N3" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="s">
+      <c r="Q4" s="12"/>
+    </row>
+    <row r="5" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B15" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="6" t="s">
+      <c r="B5" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q5" s="12"/>
+    </row>
+    <row r="6" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B6" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="12"/>
+    </row>
+    <row r="7" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="8"/>
-    </row>
-    <row r="17" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="8"/>
-    </row>
-    <row r="18" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="s">
+      <c r="F7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="G7" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="6" t="s">
+      <c r="H7" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="I7" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="8"/>
-    </row>
-    <row r="21" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
+      <c r="J7" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="K7" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="6" t="s">
+      <c r="L7" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
-      <c r="P22" s="7"/>
-      <c r="Q22" s="8"/>
-    </row>
-    <row r="23" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="s">
+      <c r="M7" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="N7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="s">
+      <c r="O7" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="B24" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q24" s="11"/>
-    </row>
-    <row r="25" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q25" s="11"/>
-    </row>
-    <row r="26" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="6" t="s">
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B9" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="s">
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B10" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7"/>
-      <c r="K28" s="7"/>
-      <c r="L28" s="7"/>
-      <c r="M28" s="7"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" s="9" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="12" t="s">
+      <c r="C10" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="D10" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="13"/>
-      <c r="K29" s="13"/>
-      <c r="L29" s="13"/>
-      <c r="M29" s="13"/>
-      <c r="N29" s="13"/>
-      <c r="O29" s="13"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
+      <c r="E10" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M11" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="M16" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="P17" s="8"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="M20" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N21" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="N24" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q24" s="12"/>
+    </row>
+    <row r="25" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q25" s="12"/>
+    </row>
+    <row r="26" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q26" s="12"/>
+    </row>
+    <row r="27" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="M27" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="I28" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="M28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" s="10" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="G29" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="H29" s="14" t="s">
+        <v>257</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="J29" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="K29" s="14" t="s">
+        <v>260</v>
+      </c>
+      <c r="L29" s="14" t="s">
+        <v>261</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>262</v>
+      </c>
+      <c r="N29" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="O29" s="14" t="s">
+        <v>264</v>
+      </c>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="15"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
